--- a/Code/Prosumage_Opt/Dieter_Module/Modified_MCP/results_to_excel.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/Modified_MCP/results_to_excel.xlsx
@@ -1,25 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cguenther\Documents\GitHub\prosumage\Code\Prosumage_Opt\Dieter_Module\Modified_MCP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="10185"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23715" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -110,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,22 +138,14 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,39 +153,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,10 +217,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,10 +251,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -282,194 +262,218 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>471730123.49746543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>471730123.22202402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11837446148.393085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11837465711.557949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33544534956.189842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33544542852.732483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21707088807.796757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21707077141.174534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71.109588481410754</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>71.109605262465806</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
@@ -507,21 +511,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B53">
-        <v>5857.5674195989723</v>
+        <v>5857.47</v>
       </c>
       <c r="C53">
         <v>14928.520768422735</v>
       </c>
       <c r="D53">
-        <v>15845.295982938424</v>
+        <v>15845.342488170525</v>
       </c>
       <c r="E53">
-        <v>7062.2082569731256</v>
+        <v>7062.2148966305804</v>
       </c>
       <c r="F53">
         <v>13489.091968036588</v>
@@ -530,7 +534,7 @@
         <v>1248.2130423920637</v>
       </c>
       <c r="H53">
-        <v>6261.7162249021912</v>
+        <v>6261.7150671219333</v>
       </c>
       <c r="I53">
         <v>55282.481202403666</v>
@@ -542,37 +546,37 @@
         <v>63959.325331165601</v>
       </c>
       <c r="L53">
-        <v>1265.5305101215743</v>
+        <v>1265.5305101215745</v>
       </c>
       <c r="M53">
-        <v>7781.0286028923019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7781.0286028922974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B56">
-        <v>0.54264094106447536</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.54264009058047435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B57">
-        <v>453810.25203097687</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>453803.43341829139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B58">
-        <v>2.2351448572512961E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.2351157669800404E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -583,18 +587,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61">
-        <v>19312.724645860697</v>
+        <v>19312.72464586077</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
       </c>
       <c r="C61">
-        <v>59.302413088063133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>59.302413088063211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
@@ -632,77 +636,77 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B83">
-        <v>24287722.423886642</v>
+        <v>24541529.139823519</v>
       </c>
       <c r="C83">
-        <v>117124665.1367311</v>
+        <v>117124734.60675387</v>
       </c>
       <c r="D83">
-        <v>81529188.656007946</v>
+        <v>81529518.767103478</v>
       </c>
       <c r="E83">
-        <v>12323663.403890701</v>
+        <v>12323670.134383429</v>
       </c>
       <c r="F83">
-        <v>4742093.3758151168</v>
+        <v>4742088.1371362656</v>
       </c>
       <c r="G83">
-        <v>30434.781887616027</v>
+        <v>30434.781887616216</v>
       </c>
       <c r="H83">
-        <v>53399955.02000235</v>
+        <v>53399955.019997813</v>
       </c>
       <c r="I83">
-        <v>83604319.791763633</v>
+        <v>83553971.485081255</v>
       </c>
       <c r="J83">
-        <v>38724976.012940176</v>
+        <v>38520988.336651191</v>
       </c>
       <c r="K83">
-        <v>55963104.894532993</v>
+        <v>55963232.813183658</v>
       </c>
       <c r="L83">
-        <v>830174.28930308996</v>
+        <v>830174.22799641523</v>
       </c>
       <c r="M83">
-        <v>14069498.849395763</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14069497.697378282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B84">
-        <v>5.1486477572842859E-2</v>
+        <v>5.2024511329060975E-2</v>
       </c>
       <c r="C84">
-        <v>0.24828744085358462</v>
+        <v>0.24828758826501326</v>
       </c>
       <c r="D84">
-        <v>0.17283015138304181</v>
+        <v>0.17283085127199069</v>
       </c>
       <c r="E84">
-        <v>2.6124393567494776E-2</v>
+        <v>2.6124407850425066E-2</v>
       </c>
       <c r="F84">
-        <v>1.0052555772051721E-2</v>
+        <v>1.005254467267582E-2</v>
       </c>
       <c r="H84">
-        <v>0.11320022266987848</v>
+        <v>0.11320022273596601</v>
       </c>
       <c r="I84">
-        <v>0.17722913086811351</v>
+        <v>0.17712239980433861</v>
       </c>
       <c r="J84">
-        <v>8.2091378277538055E-2</v>
+        <v>8.165895379659896E-2</v>
       </c>
       <c r="K84">
-        <v>0.11863373167610249</v>
+        <v>0.11863400291450979</v>
       </c>
     </row>
   </sheetData>
